--- a/src/main/resources/caseconf/SaveGrant/Case_SaveGrant.xlsx
+++ b/src/main/resources/caseconf/SaveGrant/Case_SaveGrant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="SaveGrant" sheetId="2" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -499,15 +499,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from tenant_user_grant where user_id = 699222007535509504;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId":"1001",
  "tenantUserId":"000113",
@@ -532,24 +523,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>699222007535509504,2,0,669896d873c6e116edd45da228935505</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -566,16 +539,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId":"1001",
  "tenantUserId":"000113",
@@ -640,15 +603,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -899,6 +853,23 @@
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantUserId': rejected value []; codes [NotEmpty.grantCreateRequest.tenantUserId,NotEmpty.tenantUserId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
 }</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = 000023;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from tenant_user_grant where user_id = 699222007535509504;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1511,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1604,10 +1575,10 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>14</v>
@@ -1616,7 +1587,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>66</v>
@@ -1626,13 +1597,13 @@
         <v>30</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="144" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="291" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1645,10 +1616,10 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="19" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>14</v>
@@ -1657,23 +1628,23 @@
         <v>29</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="80.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="295" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1686,10 +1657,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="19" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>14</v>
@@ -1698,10 +1669,10 @@
         <v>16</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
@@ -1723,10 +1694,10 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="19" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>14</v>
@@ -1735,26 +1706,26 @@
         <v>16</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5">
@@ -1770,10 +1741,10 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="19" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>14</v>
@@ -1782,7 +1753,7 @@
         <v>29</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>66</v>
@@ -1792,10 +1763,10 @@
         <v>17</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="409.5">
@@ -1811,10 +1782,10 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="19" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>14</v>
@@ -1823,20 +1794,20 @@
         <v>26</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="126">
@@ -1860,10 +1831,10 @@
         <v>26</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
@@ -1883,10 +1854,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="19" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>14</v>
@@ -1895,14 +1866,14 @@
         <v>16</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="11" customFormat="1" ht="138" customHeight="1">
@@ -1926,14 +1897,14 @@
         <v>26</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N10" s="41"/>
       <c r="O10" s="12"/>
@@ -1959,14 +1930,14 @@
         <v>26</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="46"/>
@@ -1992,14 +1963,14 @@
         <v>26</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="26"/>
@@ -2025,14 +1996,14 @@
         <v>26</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="47"/>
@@ -2058,14 +2029,14 @@
         <v>26</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="12"/>
@@ -2091,14 +2062,14 @@
         <v>26</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="12"/>
@@ -2124,14 +2095,14 @@
         <v>26</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="12"/>
@@ -2157,14 +2128,14 @@
         <v>26</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N17" s="41"/>
       <c r="O17" s="12"/>
@@ -2190,14 +2161,14 @@
         <v>26</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="12"/>
@@ -2223,14 +2194,14 @@
         <v>26</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="12"/>
@@ -2256,14 +2227,14 @@
         <v>26</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="12"/>
@@ -2289,14 +2260,14 @@
         <v>16</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="12"/>
